--- a/plan_tests.xlsx
+++ b/plan_tests.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlep\Documents\en_cours\P5_leporatti_romain\code\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC50A8-51DA-4F46-9A37-8B1A190DA438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="secondary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Page</t>
   </si>
@@ -61,21 +55,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>Création du tableau dans le localStorage</t>
-  </si>
-  <si>
-    <t>Gestion de l'ajout d'un nouvel item dans le tableau ou augmentation d'un item déjà existant</t>
-  </si>
-  <si>
-    <t>Créer le tableau et vérifier ensuite s'il existe</t>
-  </si>
-  <si>
-    <t>Ajouter un item au panier, contrôler le nombre d'items dans le panier (array.length), ajouter à nouveau l'item au panier, contrôler le nombre d'item</t>
-  </si>
-  <si>
-    <t>array.length (avant) === array.length (après)</t>
-  </si>
-  <si>
     <t>_id, name, imageURL, description</t>
   </si>
   <si>
@@ -83,12 +62,39 @@
   </si>
   <si>
     <t>Propriétés des objets récupérés de l'API</t>
+  </si>
+  <si>
+    <t>La page présente les différentes caméras</t>
+  </si>
+  <si>
+    <t>Il est possible d'accéder à la page de chaque caméra</t>
+  </si>
+  <si>
+    <t>La page présente les caractéristiques de la caméra sélectionnée précedemment</t>
+  </si>
+  <si>
+    <t>La page permet de rajouter la caméra au panier</t>
+  </si>
+  <si>
+    <t>La page permet de choisir une lentille et une quantité de caméras</t>
+  </si>
+  <si>
+    <t>La page présente un formulaire de contact et permet d'envoyer une requête à l'API</t>
+  </si>
+  <si>
+    <t>La page remercie l'utilisateur pour sa commande, lui indique son numéro de commande</t>
+  </si>
+  <si>
+    <t>La page permet de visualiser le contenu de son panier</t>
+  </si>
+  <si>
+    <t>Si le formulaire est mal rempli la requête n'est pas envoyée et un message alerte l'utilisateur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,24 +410,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
@@ -459,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -487,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -498,13 +502,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -512,34 +516,78 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
+  <sortState ref="A2:D7">
     <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -547,7 +595,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0C14E2B-EE52-4F20-AF3B-A2133B06A2B0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>secondary!$A$1:$A$4</xm:f>
           </x14:formula1>
@@ -560,7 +608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D520EEA-88D3-4702-8ACB-79B22DAE20AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
